--- a/old_image/devicerequest.xlsx
+++ b/old_image/devicerequest.xlsx
@@ -476,7 +476,7 @@
     <t>DeviceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the request.</t>
@@ -512,7 +512,7 @@
     <t>DeviceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | original-order | encoded | reflex-order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
@@ -536,7 +536,7 @@
     <t>DeviceRequest.priority</t>
   </si>
   <si>
-    <t>Indicates how quickly the {{title}} should be addressed with respect to other requests</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Indicates how quickly the {{title}} should be addressed with respect to other requests.</t>
@@ -1162,7 +1162,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
